--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.50527833333333</v>
+        <v>33.36960033333333</v>
       </c>
       <c r="H2">
-        <v>73.515835</v>
+        <v>100.108801</v>
       </c>
       <c r="I2">
-        <v>0.04846830138877924</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="J2">
-        <v>0.04846830138877923</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.383699</v>
+        <v>1.619868333333333</v>
       </c>
       <c r="N2">
-        <v>4.151097</v>
+        <v>4.859605</v>
       </c>
       <c r="O2">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="P2">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="Q2">
-        <v>33.907929124555</v>
+        <v>54.05435887595611</v>
       </c>
       <c r="R2">
-        <v>305.171362120995</v>
+        <v>486.489229883605</v>
       </c>
       <c r="S2">
-        <v>0.00391671225514798</v>
+        <v>0.0084176484452419</v>
       </c>
       <c r="T2">
-        <v>0.00391671225514798</v>
+        <v>0.008417648445241899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.50527833333333</v>
+        <v>33.36960033333333</v>
       </c>
       <c r="H3">
-        <v>73.515835</v>
+        <v>100.108801</v>
       </c>
       <c r="I3">
-        <v>0.04846830138877924</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="J3">
-        <v>0.04846830138877923</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.386282</v>
       </c>
       <c r="O3">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="P3">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="Q3">
-        <v>60.33429875283</v>
+        <v>82.15909276309799</v>
       </c>
       <c r="R3">
-        <v>543.00868877547</v>
+        <v>739.431834867882</v>
       </c>
       <c r="S3">
-        <v>0.006969227948510703</v>
+        <v>0.01279427550046109</v>
       </c>
       <c r="T3">
-        <v>0.006969227948510703</v>
+        <v>0.01279427550046109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.50527833333333</v>
+        <v>33.36960033333333</v>
       </c>
       <c r="H4">
-        <v>73.515835</v>
+        <v>100.108801</v>
       </c>
       <c r="I4">
-        <v>0.04846830138877924</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="J4">
-        <v>0.04846830138877923</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.941088000000001</v>
+        <v>7.682722666666667</v>
       </c>
       <c r="N4">
-        <v>26.823264</v>
+        <v>23.048168</v>
       </c>
       <c r="O4">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="P4">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="Q4">
-        <v>219.1038500428267</v>
+        <v>256.3693848585075</v>
       </c>
       <c r="R4">
-        <v>1971.93465038544</v>
+        <v>2307.324463726568</v>
       </c>
       <c r="S4">
-        <v>0.02530873328950628</v>
+        <v>0.03992328091087118</v>
       </c>
       <c r="T4">
-        <v>0.02530873328950627</v>
+        <v>0.03992328091087118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.50527833333333</v>
+        <v>33.36960033333333</v>
       </c>
       <c r="H5">
-        <v>73.515835</v>
+        <v>100.108801</v>
       </c>
       <c r="I5">
-        <v>0.04846830138877924</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="J5">
-        <v>0.04846830138877923</v>
+        <v>0.07727383968381614</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.336036333333333</v>
+        <v>3.105673</v>
       </c>
       <c r="N5">
-        <v>13.008109</v>
+        <v>9.317019</v>
       </c>
       <c r="O5">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="P5">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="Q5">
-        <v>106.2557772117794</v>
+        <v>103.6350667760243</v>
       </c>
       <c r="R5">
-        <v>956.301994906015</v>
+        <v>932.715600984219</v>
       </c>
       <c r="S5">
-        <v>0.01227362789561428</v>
+        <v>0.01613863482724198</v>
       </c>
       <c r="T5">
-        <v>0.01227362789561428</v>
+        <v>0.01613863482724198</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>330.594292</v>
       </c>
       <c r="I6">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="J6">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.383699</v>
+        <v>1.619868333333333</v>
       </c>
       <c r="N6">
-        <v>4.151097</v>
+        <v>4.859605</v>
       </c>
       <c r="O6">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="P6">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="Q6">
-        <v>152.480997082036</v>
+        <v>178.5064082638511</v>
       </c>
       <c r="R6">
-        <v>1372.328973738324</v>
+        <v>1606.55767437466</v>
       </c>
       <c r="S6">
-        <v>0.01761311307908521</v>
+        <v>0.0277980207560337</v>
       </c>
       <c r="T6">
-        <v>0.0176131130790852</v>
+        <v>0.02779802075603369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>330.594292</v>
       </c>
       <c r="I7">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="J7">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>7.386282</v>
       </c>
       <c r="O7">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="P7">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="Q7">
         <v>271.318074255816</v>
@@ -883,10 +883,10 @@
         <v>2441.862668302344</v>
       </c>
       <c r="S7">
-        <v>0.03134000966491788</v>
+        <v>0.04225117480657751</v>
       </c>
       <c r="T7">
-        <v>0.03134000966491789</v>
+        <v>0.0422511748065775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>330.594292</v>
       </c>
       <c r="I8">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="J8">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.941088000000001</v>
+        <v>7.682722666666667</v>
       </c>
       <c r="N8">
-        <v>26.823264</v>
+        <v>23.048168</v>
       </c>
       <c r="O8">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="P8">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="Q8">
-        <v>985.2908856898988</v>
+        <v>846.6214202063396</v>
       </c>
       <c r="R8">
-        <v>8867.617971209089</v>
+        <v>7619.592781857056</v>
       </c>
       <c r="S8">
-        <v>0.1138111641289412</v>
+        <v>0.1318406439314618</v>
       </c>
       <c r="T8">
-        <v>0.1138111641289412</v>
+        <v>0.1318406439314618</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>330.594292</v>
       </c>
       <c r="I9">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="J9">
-        <v>0.2179577200213544</v>
+        <v>0.2551852590901843</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.336036333333333</v>
+        <v>3.105673</v>
       </c>
       <c r="N9">
-        <v>13.008109</v>
+        <v>9.317019</v>
       </c>
       <c r="O9">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="P9">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="Q9">
-        <v>477.8229539015364</v>
+        <v>342.2392555395053</v>
       </c>
       <c r="R9">
-        <v>4300.406585113828</v>
+        <v>3080.153299855548</v>
       </c>
       <c r="S9">
-        <v>0.05519343314841017</v>
+        <v>0.05329541959611127</v>
       </c>
       <c r="T9">
-        <v>0.05519343314841016</v>
+        <v>0.05329541959611127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.17031833333333</v>
+        <v>13.90116633333333</v>
       </c>
       <c r="H10">
-        <v>57.510955</v>
+        <v>41.703499</v>
       </c>
       <c r="I10">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="J10">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.383699</v>
+        <v>1.619868333333333</v>
       </c>
       <c r="N10">
-        <v>4.151097</v>
+        <v>4.859605</v>
       </c>
       <c r="O10">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="P10">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="Q10">
-        <v>26.525950307515</v>
+        <v>22.51805913976612</v>
       </c>
       <c r="R10">
-        <v>238.733552767635</v>
+        <v>202.662532257895</v>
       </c>
       <c r="S10">
-        <v>0.003064018279242343</v>
+        <v>0.003506638677237751</v>
       </c>
       <c r="T10">
-        <v>0.003064018279242343</v>
+        <v>0.00350663867723775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.17031833333333</v>
+        <v>13.90116633333333</v>
       </c>
       <c r="H11">
-        <v>57.510955</v>
+        <v>41.703499</v>
       </c>
       <c r="I11">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="J11">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.386282</v>
       </c>
       <c r="O11">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="P11">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="Q11">
-        <v>47.19912574659</v>
+        <v>34.225978222302</v>
       </c>
       <c r="R11">
-        <v>424.79213171931</v>
+        <v>308.033804000718</v>
       </c>
       <c r="S11">
-        <v>0.005451981262697232</v>
+        <v>0.005329861612658849</v>
       </c>
       <c r="T11">
-        <v>0.005451981262697233</v>
+        <v>0.005329861612658848</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.17031833333333</v>
+        <v>13.90116633333333</v>
       </c>
       <c r="H12">
-        <v>57.510955</v>
+        <v>41.703499</v>
       </c>
       <c r="I12">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="J12">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.941088000000001</v>
+        <v>7.682722666666667</v>
       </c>
       <c r="N12">
-        <v>26.823264</v>
+        <v>23.048168</v>
       </c>
       <c r="O12">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="P12">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="Q12">
-        <v>171.4035032063467</v>
+        <v>106.7988056822036</v>
       </c>
       <c r="R12">
-        <v>1542.63152885712</v>
+        <v>961.189251139832</v>
       </c>
       <c r="S12">
-        <v>0.01979885586989249</v>
+        <v>0.01663131002381334</v>
       </c>
       <c r="T12">
-        <v>0.01979885586989249</v>
+        <v>0.01663131002381334</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.17031833333333</v>
+        <v>13.90116633333333</v>
       </c>
       <c r="H13">
-        <v>57.510955</v>
+        <v>41.703499</v>
       </c>
       <c r="I13">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="J13">
-        <v>0.03791643392333802</v>
+        <v>0.0321908709702775</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.336036333333333</v>
+        <v>3.105673</v>
       </c>
       <c r="N13">
-        <v>13.008109</v>
+        <v>9.317019</v>
       </c>
       <c r="O13">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="P13">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="Q13">
-        <v>83.12319681489944</v>
+        <v>43.17247694994234</v>
       </c>
       <c r="R13">
-        <v>748.1087713340951</v>
+        <v>388.552292549481</v>
       </c>
       <c r="S13">
-        <v>0.009601578511505955</v>
+        <v>0.006723060656567558</v>
       </c>
       <c r="T13">
-        <v>0.009601578511505955</v>
+        <v>0.006723060656567558</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>351.7202226666666</v>
+        <v>274.366806</v>
       </c>
       <c r="H14">
-        <v>1055.160668</v>
+        <v>823.100418</v>
       </c>
       <c r="I14">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="J14">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.383699</v>
+        <v>1.619868333333333</v>
       </c>
       <c r="N14">
-        <v>4.151097</v>
+        <v>4.859605</v>
       </c>
       <c r="O14">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="P14">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="Q14">
-        <v>486.674920383644</v>
+        <v>444.43810075721</v>
       </c>
       <c r="R14">
-        <v>4380.074283452796</v>
+        <v>3999.94290681489</v>
       </c>
       <c r="S14">
-        <v>0.05621592571866631</v>
+        <v>0.06921039793350095</v>
       </c>
       <c r="T14">
-        <v>0.05621592571866631</v>
+        <v>0.06921039793350095</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>351.7202226666666</v>
+        <v>274.366806</v>
       </c>
       <c r="H15">
-        <v>1055.160668</v>
+        <v>823.100418</v>
       </c>
       <c r="I15">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="J15">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>7.386282</v>
       </c>
       <c r="O15">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="P15">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="Q15">
-        <v>865.968249906264</v>
+        <v>675.516866851764</v>
       </c>
       <c r="R15">
-        <v>7793.714249156376</v>
+        <v>6079.651801665877</v>
       </c>
       <c r="S15">
-        <v>0.1000281805626614</v>
+        <v>0.1051952816060267</v>
       </c>
       <c r="T15">
-        <v>0.1000281805626614</v>
+        <v>0.1051952816060267</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>351.7202226666666</v>
+        <v>274.366806</v>
       </c>
       <c r="H16">
-        <v>1055.160668</v>
+        <v>823.100418</v>
       </c>
       <c r="I16">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="J16">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.941088000000001</v>
+        <v>7.682722666666667</v>
       </c>
       <c r="N16">
-        <v>26.823264</v>
+        <v>23.048168</v>
       </c>
       <c r="O16">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="P16">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="Q16">
-        <v>3144.761462242261</v>
+        <v>2107.884079437136</v>
       </c>
       <c r="R16">
-        <v>28302.85316018036</v>
+        <v>18970.95671493423</v>
       </c>
       <c r="S16">
-        <v>0.3632520792831814</v>
+        <v>0.3282515510865971</v>
       </c>
       <c r="T16">
-        <v>0.3632520792831814</v>
+        <v>0.3282515510865971</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>351.7202226666666</v>
+        <v>274.366806</v>
       </c>
       <c r="H17">
-        <v>1055.160668</v>
+        <v>823.100418</v>
       </c>
       <c r="I17">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="J17">
-        <v>0.6956575446665283</v>
+        <v>0.635350030255722</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.336036333333333</v>
+        <v>3.105673</v>
       </c>
       <c r="N17">
-        <v>13.008109</v>
+        <v>9.317019</v>
       </c>
       <c r="O17">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="P17">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="Q17">
-        <v>1525.071664650757</v>
+        <v>852.0935814904379</v>
       </c>
       <c r="R17">
-        <v>13725.64498185681</v>
+        <v>7668.842233413942</v>
       </c>
       <c r="S17">
-        <v>0.1761613591020192</v>
+        <v>0.1326927996295973</v>
       </c>
       <c r="T17">
-        <v>0.1761613591020192</v>
+        <v>0.1326927996295973</v>
       </c>
     </row>
   </sheetData>
